--- a/bd/modelagens/fisica/modelagem_fisico.xlsx
+++ b/bd/modelagens/fisica/modelagem_fisico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanc\Desktop\Senai\Modelagens\Física\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alanc\Desktop\Senai\Projeto_Inicial-3T\bd\modelagens\fisica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F06A33C3-E201-4008-9ADB-84C5F69B48F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998C879-7D8D-46A4-90EF-B72337EA0E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BFC096FA-A848-4024-BDAC-25D66482CE75}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>TiposEquipamento</t>
   </si>
@@ -36,15 +36,9 @@
     <t>NomeEquipamento</t>
   </si>
   <si>
-    <t>Situacao</t>
-  </si>
-  <si>
     <t>IdSituacao</t>
   </si>
   <si>
-    <t>NomeSituacao</t>
-  </si>
-  <si>
     <t>Sala</t>
   </si>
   <si>
@@ -75,12 +69,6 @@
     <t>Descricao</t>
   </si>
   <si>
-    <t>Exibicao</t>
-  </si>
-  <si>
-    <t>IdExibicao</t>
-  </si>
-  <si>
     <t>IdUsuario</t>
   </si>
   <si>
@@ -91,6 +79,27 @@
   </si>
   <si>
     <t>Senha</t>
+  </si>
+  <si>
+    <t>Situcao</t>
+  </si>
+  <si>
+    <t>Relacao</t>
+  </si>
+  <si>
+    <t>idRelacao</t>
+  </si>
+  <si>
+    <t>idSala</t>
+  </si>
+  <si>
+    <t>idEquipamento</t>
+  </si>
+  <si>
+    <t>DataEntrada</t>
+  </si>
+  <si>
+    <t>DataSaida</t>
   </si>
 </sst>
 </file>
@@ -114,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +145,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,21 +257,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB4405A-2BE5-44FB-9573-C95CD489BFF6}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,105 +604,113 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>11</v>
+      <c r="C1" s="15"/>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>12</v>
+      <c r="C2" s="16"/>
+      <c r="E2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16"/>
+      <c r="E3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E4" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="G8" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="E9" s="18"/>
+      <c r="G9" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
+      <c r="G10" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
